--- a/data/trans_dic/P17G_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R-Edad-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>76,81; 96,75</t>
+          <t>78,72; 96,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>77,37; 96,41</t>
+          <t>76,08; 96,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>84,66; 97,02</t>
+          <t>83,27; 97,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>44,1; 100,0</t>
+          <t>42,92; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>86,4; 97,49</t>
+          <t>85,33; 97,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>89,92; 98,98</t>
+          <t>90,82; 99,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>91,75; 99,01</t>
+          <t>91,58; 99,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>80,26; 97,39</t>
+          <t>78,58; 97,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>86,05; 95,97</t>
+          <t>86,06; 95,94</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>87,33; 96,78</t>
+          <t>88,29; 96,74</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>90,66; 97,54</t>
+          <t>90,6; 97,52</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>73,49; 95,75</t>
+          <t>76,4; 95,73</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>70,82; 90,13</t>
+          <t>71,04; 89,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>88,03; 97,29</t>
+          <t>87,9; 97,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>72,24; 89,8</t>
+          <t>73,13; 89,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>75,37; 95,24</t>
+          <t>75,37; 94,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>83,31; 93,7</t>
+          <t>82,65; 93,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>89,96; 98,07</t>
+          <t>90,17; 98,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>85,18; 94,75</t>
+          <t>85,44; 94,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>77,95; 92,96</t>
+          <t>77,45; 92,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>82,12; 91,44</t>
+          <t>81,66; 91,45</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>91,29; 97,02</t>
+          <t>90,86; 96,71</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>82,59; 91,36</t>
+          <t>83,16; 91,85</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>79,09; 91,81</t>
+          <t>80,46; 92,32</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>81,27; 94,23</t>
+          <t>80,51; 94,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>86,5; 95,78</t>
+          <t>86,54; 95,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>85,91; 95,8</t>
+          <t>85,86; 95,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>77,68; 94,11</t>
+          <t>78,1; 94,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>88,71; 96,48</t>
+          <t>88,67; 96,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>87,58; 96,48</t>
+          <t>87,25; 96,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>86,22; 95,06</t>
+          <t>86,72; 95,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>81,85; 91,6</t>
+          <t>81,74; 91,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>88,17; 95,05</t>
+          <t>88,21; 94,95</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>89,16; 95,53</t>
+          <t>88,91; 95,29</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>88,03; 94,43</t>
+          <t>88,57; 94,55</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>82,55; 91,23</t>
+          <t>82,69; 91,26</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>74,8; 91,48</t>
+          <t>74,16; 91,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>81,77; 94,51</t>
+          <t>81,29; 95,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>80,84; 92,43</t>
+          <t>80,62; 92,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>80,18; 92,4</t>
+          <t>79,89; 92,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>87,17; 96,38</t>
+          <t>87,07; 95,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,15; 99,49</t>
+          <t>95,63; 99,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>87,39; 95,86</t>
+          <t>88,75; 96,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>82,37; 90,24</t>
+          <t>82,27; 90,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>85,03; 93,19</t>
+          <t>84,57; 92,83</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>91,88; 97,14</t>
+          <t>91,72; 96,95</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>86,61; 93,42</t>
+          <t>86,66; 93,62</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>83,33; 90,25</t>
+          <t>82,8; 90,08</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>85,32; 95,53</t>
+          <t>84,25; 95,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>84,66; 96,53</t>
+          <t>85,52; 96,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>86,04; 95,7</t>
+          <t>86,33; 95,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>87,8; 96,15</t>
+          <t>87,51; 96,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>86,82; 96,39</t>
+          <t>87,11; 96,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>92,98; 98,82</t>
+          <t>92,97; 98,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>88,33; 96,91</t>
+          <t>88,14; 96,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>85,36; 93,11</t>
+          <t>85,03; 92,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>88,0; 94,66</t>
+          <t>88,23; 94,93</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>91,29; 97,11</t>
+          <t>91,16; 97,13</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>89,46; 95,47</t>
+          <t>89,38; 95,45</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>87,89; 93,53</t>
+          <t>88,06; 93,69</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>92,66; 97,98</t>
+          <t>92,03; 97,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>93,49; 98,8</t>
+          <t>92,71; 98,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>92,81; 98,13</t>
+          <t>92,76; 98,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>88,6; 94,99</t>
+          <t>88,74; 94,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>95,21; 99,02</t>
+          <t>95,33; 99,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>93,39; 97,76</t>
+          <t>93,33; 97,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>93,54; 98,09</t>
+          <t>93,22; 98,05</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>90,88; 95,55</t>
+          <t>91,21; 95,69</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>95,02; 98,05</t>
+          <t>94,97; 98,07</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>94,55; 97,75</t>
+          <t>94,53; 97,87</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>94,06; 97,51</t>
+          <t>94,29; 97,69</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>90,51; 94,63</t>
+          <t>90,94; 94,86</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>87,93; 92,67</t>
+          <t>87,93; 92,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>91,06; 95,13</t>
+          <t>91,02; 95,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>88,97; 93,21</t>
+          <t>89,19; 93,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>86,71; 92,1</t>
+          <t>87,0; 92,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>92,06; 95,19</t>
+          <t>92,15; 95,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>94,59; 97,06</t>
+          <t>94,62; 97,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>92,32; 95,25</t>
+          <t>92,4; 95,21</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>87,84; 91,54</t>
+          <t>87,86; 91,53</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>91,35; 93,88</t>
+          <t>91,2; 93,81</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>93,64; 95,84</t>
+          <t>93,65; 95,83</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>91,39; 93,85</t>
+          <t>91,43; 93,92</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>88,16; 91,07</t>
+          <t>88,06; 91,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P17G_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>78,72; 96,85</t>
+          <t>78,97; 96,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>76,08; 96,26</t>
+          <t>75,62; 96,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>83,27; 97,01</t>
+          <t>83,25; 97,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>85,33; 97,59</t>
+          <t>85,53; 96,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>90,82; 99,0</t>
+          <t>90,74; 98,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>91,58; 99,03</t>
+          <t>91,54; 99,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>86,06; 95,94</t>
+          <t>86,01; 95,6</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>88,29; 96,74</t>
+          <t>87,76; 96,81</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>90,6; 97,52</t>
+          <t>90,06; 97,58</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>71,04; 89,81</t>
+          <t>70,5; 89,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>87,9; 97,28</t>
+          <t>87,85; 97,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>73,13; 89,82</t>
+          <t>73,41; 90,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>82,65; 93,79</t>
+          <t>84,28; 94,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>90,17; 98,06</t>
+          <t>89,79; 98,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>85,44; 94,5</t>
+          <t>84,94; 94,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>81,66; 91,45</t>
+          <t>81,43; 91,03</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>90,86; 96,71</t>
+          <t>91,0; 96,95</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>83,16; 91,85</t>
+          <t>82,77; 91,65</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>80,51; 94,63</t>
+          <t>80,53; 94,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>86,54; 95,6</t>
+          <t>85,77; 95,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>85,86; 95,83</t>
+          <t>85,91; 95,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>88,67; 96,8</t>
+          <t>88,9; 96,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>87,25; 96,61</t>
+          <t>87,88; 96,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>86,72; 95,08</t>
+          <t>86,81; 95,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>88,21; 94,95</t>
+          <t>88,16; 94,84</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>88,91; 95,29</t>
+          <t>89,16; 95,51</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>88,57; 94,55</t>
+          <t>88,15; 94,37</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>74,16; 91,05</t>
+          <t>74,96; 90,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>81,29; 95,13</t>
+          <t>80,84; 94,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>80,62; 92,04</t>
+          <t>80,52; 92,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>87,07; 95,92</t>
+          <t>87,71; 96,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,63; 99,5</t>
+          <t>95,7; 99,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>88,75; 96,43</t>
+          <t>88,0; 95,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>84,57; 92,83</t>
+          <t>85,37; 93,25</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>91,72; 96,95</t>
+          <t>91,75; 97,25</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>86,66; 93,62</t>
+          <t>86,69; 93,41</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>84,25; 95,4</t>
+          <t>84,62; 95,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>85,52; 96,49</t>
+          <t>83,9; 96,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>86,33; 95,57</t>
+          <t>86,44; 95,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>87,11; 96,09</t>
+          <t>86,93; 96,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>92,97; 98,81</t>
+          <t>92,91; 98,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>88,14; 96,86</t>
+          <t>87,64; 96,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>88,23; 94,93</t>
+          <t>87,76; 94,87</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>91,16; 97,13</t>
+          <t>91,0; 97,17</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>89,38; 95,45</t>
+          <t>89,44; 95,61</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>92,03; 97,64</t>
+          <t>92,57; 97,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>92,71; 98,79</t>
+          <t>93,7; 98,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>92,76; 98,12</t>
+          <t>92,66; 98,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>95,33; 99,01</t>
+          <t>95,1; 98,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>93,33; 97,82</t>
+          <t>93,82; 97,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>93,22; 98,05</t>
+          <t>93,41; 98,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>94,97; 98,07</t>
+          <t>95,03; 98,02</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>94,53; 97,87</t>
+          <t>94,43; 97,79</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>94,29; 97,69</t>
+          <t>94,21; 97,72</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>87,93; 92,78</t>
+          <t>88,05; 92,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>91,02; 95,13</t>
+          <t>91,07; 94,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>89,19; 93,18</t>
+          <t>88,84; 93,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>92,15; 95,24</t>
+          <t>92,03; 95,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>94,62; 97,06</t>
+          <t>94,58; 97,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>92,4; 95,21</t>
+          <t>92,23; 95,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>91,2; 93,81</t>
+          <t>91,19; 93,84</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>93,65; 95,83</t>
+          <t>93,65; 95,91</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>91,43; 93,92</t>
+          <t>91,6; 93,93</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">

--- a/data/trans_dic/P17G_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>78,97; 96,68</t>
+          <t>76,81; 96,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>75,62; 96,27</t>
+          <t>77,37; 96,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>83,25; 97,09</t>
+          <t>84,66; 97,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>42,92; 100,0</t>
+          <t>44,1; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>85,53; 96,67</t>
+          <t>86,4; 97,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>90,74; 98,98</t>
+          <t>89,92; 98,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>91,54; 99,01</t>
+          <t>91,75; 99,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>78,58; 97,54</t>
+          <t>80,26; 97,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>86,01; 95,6</t>
+          <t>86,05; 95,97</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>87,76; 96,81</t>
+          <t>87,33; 96,78</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>90,06; 97,58</t>
+          <t>90,66; 97,54</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>76,4; 95,73</t>
+          <t>73,49; 95,75</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>70,5; 89,98</t>
+          <t>70,82; 90,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>87,85; 97,26</t>
+          <t>88,03; 97,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>73,41; 90,32</t>
+          <t>72,24; 89,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>75,37; 94,92</t>
+          <t>75,37; 95,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>84,28; 94,01</t>
+          <t>83,31; 93,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>89,79; 98,06</t>
+          <t>89,96; 98,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>84,94; 94,39</t>
+          <t>85,18; 94,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>77,45; 92,92</t>
+          <t>77,95; 92,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>81,43; 91,03</t>
+          <t>82,12; 91,44</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>91,0; 96,95</t>
+          <t>91,29; 97,02</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>82,77; 91,65</t>
+          <t>82,59; 91,36</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>80,46; 92,32</t>
+          <t>79,09; 91,81</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>80,53; 94,18</t>
+          <t>81,27; 94,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>85,77; 95,52</t>
+          <t>86,5; 95,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>85,91; 95,98</t>
+          <t>85,91; 95,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>78,1; 94,78</t>
+          <t>77,68; 94,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>88,9; 96,44</t>
+          <t>88,71; 96,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>87,88; 96,52</t>
+          <t>87,58; 96,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>86,81; 95,27</t>
+          <t>86,22; 95,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>81,74; 91,57</t>
+          <t>81,85; 91,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>88,16; 94,84</t>
+          <t>88,17; 95,05</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>89,16; 95,51</t>
+          <t>89,16; 95,53</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>88,15; 94,37</t>
+          <t>88,03; 94,43</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>82,69; 91,26</t>
+          <t>82,55; 91,23</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>74,96; 90,97</t>
+          <t>74,8; 91,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>80,84; 94,23</t>
+          <t>81,77; 94,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>80,52; 92,6</t>
+          <t>80,84; 92,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>79,89; 92,38</t>
+          <t>80,18; 92,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>87,71; 96,52</t>
+          <t>87,17; 96,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,7; 99,5</t>
+          <t>95,15; 99,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>88,0; 95,88</t>
+          <t>87,39; 95,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>82,27; 90,3</t>
+          <t>82,37; 90,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>85,37; 93,25</t>
+          <t>85,03; 93,19</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>91,75; 97,25</t>
+          <t>91,88; 97,14</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>86,69; 93,41</t>
+          <t>86,61; 93,42</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>82,8; 90,08</t>
+          <t>83,33; 90,25</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>84,62; 95,21</t>
+          <t>85,32; 95,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>83,9; 96,48</t>
+          <t>84,66; 96,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>86,44; 95,82</t>
+          <t>86,04; 95,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>87,51; 96,25</t>
+          <t>87,8; 96,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>86,93; 96,27</t>
+          <t>86,82; 96,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>92,91; 98,79</t>
+          <t>92,98; 98,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>87,64; 96,97</t>
+          <t>88,33; 96,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>85,03; 92,71</t>
+          <t>85,36; 93,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>87,76; 94,87</t>
+          <t>88,0; 94,66</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>91,0; 97,17</t>
+          <t>91,29; 97,11</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>89,44; 95,61</t>
+          <t>89,46; 95,47</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>88,06; 93,69</t>
+          <t>87,89; 93,53</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>92,57; 97,8</t>
+          <t>92,66; 97,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>93,7; 98,76</t>
+          <t>93,49; 98,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>92,66; 98,25</t>
+          <t>92,81; 98,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>88,74; 94,91</t>
+          <t>88,6; 94,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>95,1; 98,78</t>
+          <t>95,21; 99,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>93,82; 97,82</t>
+          <t>93,39; 97,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>93,41; 98,03</t>
+          <t>93,54; 98,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>91,21; 95,69</t>
+          <t>90,88; 95,55</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>95,03; 98,02</t>
+          <t>95,02; 98,05</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>94,43; 97,79</t>
+          <t>94,55; 97,75</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>94,21; 97,72</t>
+          <t>94,06; 97,51</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>90,94; 94,86</t>
+          <t>90,51; 94,63</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>88,05; 92,54</t>
+          <t>87,93; 92,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>91,07; 94,92</t>
+          <t>91,06; 95,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>88,84; 93,23</t>
+          <t>88,97; 93,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>87,0; 92,01</t>
+          <t>86,71; 92,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>92,03; 95,2</t>
+          <t>92,06; 95,19</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>94,58; 97,08</t>
+          <t>94,59; 97,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>92,23; 95,13</t>
+          <t>92,32; 95,25</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>87,86; 91,53</t>
+          <t>87,84; 91,54</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>91,19; 93,84</t>
+          <t>91,35; 93,88</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>93,65; 95,91</t>
+          <t>93,64; 95,84</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>91,6; 93,93</t>
+          <t>91,39; 93,85</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>88,06; 91,11</t>
+          <t>88,16; 91,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P17G_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>80,96%</t>
+          <t>84,17%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>91,74%</t>
+          <t>91,81%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>88,38%</t>
+          <t>89,05%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>44,1; 100,0</t>
+          <t>45,98; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>80,26; 97,39</t>
+          <t>80,12; 97,46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>73,49; 95,75</t>
+          <t>74,18; 96,03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>87,56%</t>
+          <t>87,23%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>86,24%</t>
+          <t>90,98%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>86,76%</t>
+          <t>89,77%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>75,37; 95,24</t>
+          <t>74,12; 95,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>77,95; 92,96</t>
+          <t>82,12; 97,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>79,09; 91,81</t>
+          <t>82,42; 95,96</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>87,73%</t>
+          <t>87,54%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>87,38%</t>
+          <t>87,19%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>87,52%</t>
+          <t>87,33%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>77,68; 94,11</t>
+          <t>77,41; 93,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>81,85; 91,6</t>
+          <t>81,56; 91,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>82,55; 91,23</t>
+          <t>82,5; 91,1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>87,1%</t>
+          <t>87,07%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>86,8%</t>
+          <t>86,58%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>86,93%</t>
+          <t>86,79%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>80,18; 92,4</t>
+          <t>79,9; 92,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>82,37; 90,24</t>
+          <t>82,21; 90,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>83,33; 90,25</t>
+          <t>83,08; 90,06</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>92,68%</t>
+          <t>92,63%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>91,21%</t>
+          <t>91,2%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>87,8; 96,15</t>
+          <t>87,82; 96,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>85,36; 93,11</t>
+          <t>85,42; 93,24</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>87,89; 93,53</t>
+          <t>87,97; 93,53</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>95,76%</t>
+          <t>95,27%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>97,06%</t>
+          <t>95,32%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>96,06%</t>
+          <t>97,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>92,2%</t>
+          <t>89,98%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>97,44%</t>
+          <t>96,95%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,03%</t>
+          <t>95,44%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>96,21%</t>
+          <t>94,8%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>93,66%</t>
+          <t>94,16%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>96,75%</t>
+          <t>96,19%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>96,47%</t>
+          <t>95,38%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>96,15%</t>
+          <t>95,7%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>93,06%</t>
+          <t>92,23%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>92,66; 97,98</t>
+          <t>91,34; 97,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>93,49; 98,8</t>
+          <t>88,83; 98,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>92,81; 98,13</t>
+          <t>92,55; 99,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>88,6; 94,99</t>
+          <t>83,63; 94,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>95,21; 99,02</t>
+          <t>93,29; 98,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>93,39; 97,76</t>
+          <t>91,33; 98,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>93,54; 98,09</t>
+          <t>90,33; 97,54</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>90,88; 95,55</t>
+          <t>90,55; 96,82</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>95,02; 98,05</t>
+          <t>93,63; 97,89</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>94,55; 97,75</t>
+          <t>92,15; 97,56</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>94,06; 97,51</t>
+          <t>92,74; 97,71</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>90,51; 94,63</t>
+          <t>89,26; 94,83</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>90,58%</t>
+          <t>96,46%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>93,27%</t>
+          <t>99,15%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>91,3%</t>
+          <t>94,92%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>89,71%</t>
+          <t>95,02%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>93,79%</t>
+          <t>97,9%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>95,92%</t>
+          <t>96,51%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>93,86%</t>
+          <t>97,73%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>89,71%</t>
+          <t>93,19%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>92,56%</t>
+          <t>97,39%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>94,85%</t>
+          <t>97,5%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>92,77%</t>
+          <t>96,65%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>89,71%</t>
+          <t>93,9%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>90,07; 99,04</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>95,71; 100,0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>88,4; 98,27</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>90,16; 98,22</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>94,4; 99,36</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>92,89; 98,45</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>93,99; 99,27</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>89,19; 95,89</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>94,3; 98,99</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>95,11; 98,92</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>93,6; 98,36</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>90,92; 96,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>90,58%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>93,27%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>91,3%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>89,68%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>93,79%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>95,92%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>93,86%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>90,27%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>92,56%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>94,85%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>92,77%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>90,03%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>87,93; 92,67</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>91,06; 95,13</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>88,97; 93,21</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>86,71; 92,1</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>86,62; 92,09</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>92,06; 95,19</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>94,59; 97,06</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>92,32; 95,25</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>87,84; 91,54</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>88,3; 92,72</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>91,35; 93,88</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>93,64; 95,84</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>91,39; 93,85</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>88,16; 91,07</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>88,32; 91,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P17G_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>76,81; 96,75</t>
+          <t>78,19; 96,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>77,37; 96,41</t>
+          <t>77,32; 96,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>84,66; 97,02</t>
+          <t>82,7; 97,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>45,98; 100,0</t>
+          <t>50,65; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>86,4; 97,49</t>
+          <t>85,63; 97,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>89,92; 98,98</t>
+          <t>90,64; 99,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>91,75; 99,01</t>
+          <t>91,29; 99,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>80,12; 97,46</t>
+          <t>78,5; 98,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>86,05; 95,97</t>
+          <t>86,41; 95,74</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>87,33; 96,78</t>
+          <t>87,84; 96,78</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>90,66; 97,54</t>
+          <t>90,54; 97,72</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>74,18; 96,03</t>
+          <t>73,71; 96,02</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>70,82; 90,13</t>
+          <t>71,2; 90,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>88,03; 97,29</t>
+          <t>88,05; 97,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>72,24; 89,8</t>
+          <t>73,41; 90,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>74,12; 95,06</t>
+          <t>73,31; 94,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>83,31; 93,7</t>
+          <t>82,99; 93,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>89,96; 98,07</t>
+          <t>90,58; 98,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>85,18; 94,75</t>
+          <t>84,91; 94,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>82,12; 97,33</t>
+          <t>81,21; 97,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>82,12; 91,44</t>
+          <t>82,02; 91,01</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>91,29; 97,02</t>
+          <t>91,41; 96,99</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>82,59; 91,36</t>
+          <t>83,08; 91,26</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>82,42; 95,96</t>
+          <t>82,74; 96,16</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>81,27; 94,23</t>
+          <t>80,45; 94,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>86,5; 95,78</t>
+          <t>86,35; 95,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>85,91; 95,8</t>
+          <t>86,3; 95,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>77,41; 93,96</t>
+          <t>78,87; 94,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>88,71; 96,48</t>
+          <t>88,65; 96,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>87,58; 96,48</t>
+          <t>88,32; 96,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>86,22; 95,06</t>
+          <t>86,6; 94,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>81,56; 91,47</t>
+          <t>81,81; 91,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>88,17; 95,05</t>
+          <t>88,55; 94,95</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>89,16; 95,53</t>
+          <t>89,16; 95,34</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>88,03; 94,43</t>
+          <t>88,25; 94,64</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>82,5; 91,1</t>
+          <t>82,39; 91,58</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>74,8; 91,48</t>
+          <t>75,83; 90,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>81,77; 94,51</t>
+          <t>81,52; 94,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>80,84; 92,43</t>
+          <t>81,66; 92,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>79,9; 92,26</t>
+          <t>80,45; 92,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>87,17; 96,38</t>
+          <t>87,26; 96,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,15; 99,49</t>
+          <t>95,68; 99,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>87,39; 95,86</t>
+          <t>88,16; 95,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>82,21; 90,0</t>
+          <t>81,91; 90,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>85,03; 93,19</t>
+          <t>85,39; 93,2</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>91,88; 97,14</t>
+          <t>91,81; 97,37</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>86,61; 93,42</t>
+          <t>86,7; 93,6</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>83,08; 90,06</t>
+          <t>83,08; 90,25</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>85,32; 95,53</t>
+          <t>85,6; 95,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>84,66; 96,53</t>
+          <t>84,86; 96,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>86,04; 95,7</t>
+          <t>86,43; 95,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>87,82; 96,11</t>
+          <t>87,91; 96,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>86,82; 96,39</t>
+          <t>87,66; 96,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>92,98; 98,82</t>
+          <t>92,59; 98,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>88,33; 96,91</t>
+          <t>88,62; 96,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>85,42; 93,24</t>
+          <t>85,39; 93,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>88,0; 94,66</t>
+          <t>88,11; 94,62</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>91,29; 97,11</t>
+          <t>91,09; 97,06</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>89,46; 95,47</t>
+          <t>89,27; 95,39</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>87,97; 93,53</t>
+          <t>88,33; 93,72</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>91,34; 97,98</t>
+          <t>90,58; 98,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>88,83; 98,44</t>
+          <t>89,23; 98,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>92,55; 99,21</t>
+          <t>93,16; 99,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>83,63; 94,07</t>
+          <t>84,83; 94,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>93,29; 98,79</t>
+          <t>93,15; 98,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>91,33; 98,05</t>
+          <t>91,59; 98,04</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>90,33; 97,54</t>
+          <t>89,11; 97,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>90,55; 96,82</t>
+          <t>90,63; 96,59</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>93,63; 97,89</t>
+          <t>93,76; 98,0</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>92,15; 97,56</t>
+          <t>91,75; 97,29</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>92,74; 97,71</t>
+          <t>92,6; 97,67</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>89,26; 94,83</t>
+          <t>89,1; 94,53</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>90,07; 99,04</t>
+          <t>89,49; 99,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>95,71; 100,0</t>
+          <t>95,43; 100,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>88,4; 98,27</t>
+          <t>88,53; 98,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>90,16; 98,22</t>
+          <t>89,5; 97,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>94,4; 99,36</t>
+          <t>93,87; 99,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>92,89; 98,45</t>
+          <t>92,97; 98,8</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>93,99; 99,27</t>
+          <t>93,91; 99,27</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>89,19; 95,89</t>
+          <t>89,2; 95,74</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>94,3; 98,99</t>
+          <t>94,1; 98,83</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>95,11; 98,92</t>
+          <t>94,94; 98,94</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>93,6; 98,36</t>
+          <t>93,51; 98,39</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>90,92; 96,11</t>
+          <t>91,09; 96,16</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>87,93; 92,67</t>
+          <t>88,23; 92,74</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>91,06; 95,13</t>
+          <t>91,07; 95,09</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>88,97; 93,21</t>
+          <t>89,0; 93,06</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>86,62; 92,09</t>
+          <t>87,11; 92,11</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>92,06; 95,19</t>
+          <t>92,25; 95,2</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>94,59; 97,06</t>
+          <t>94,61; 97,07</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>92,32; 95,25</t>
+          <t>92,2; 95,22</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>88,3; 92,72</t>
+          <t>88,42; 92,64</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>91,35; 93,88</t>
+          <t>91,25; 93,91</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>93,64; 95,84</t>
+          <t>93,64; 95,83</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>91,39; 93,85</t>
+          <t>91,45; 93,92</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>88,32; 91,78</t>
+          <t>88,47; 91,88</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha acudido a un médico de la seguridad social en su última visita</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>50616</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>50929</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>61991</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>26270</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>78945</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>94250</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>90399</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>50552</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>129561</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>145178</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>152391</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>76822</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>43833; 54268</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>44107; 54969</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>55477; 65089</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>15807; 31210</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>72746; 82798</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>89037; 97243</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>85206; 92416</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>43224; 54048</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>121855; 135013</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>136400; 150276</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>145240; 156769</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>63591; 82840</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>59771</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>93853</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>74672</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>68602</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>134411</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>150601</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>140673</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>151127</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>194182</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>244454</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>215345</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>219729</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>51872; 65829</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>88282; 97528</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>66241; 81535</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>57655; 74304</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>124957; 141445</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>143473; 155298</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>131777; 147177</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>134908; 162657</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>183242; 203330</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>236431; 250856</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>203899; 223973</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>202506; 235371</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>83621</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>115337</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>135031</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>70649</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>173498</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>177772</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>155708</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>103318</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>257119</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>293108</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>290739</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>173965</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>75461; 88170</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>108449; 120070</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>126838; 140703</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>63653; 75989</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>164560; 179470</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>168477; 184209</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>147345; 161477</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>96948; 108649</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>247437; 265324</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>282068; 301618</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>279851; 300122</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>164116; 182420</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>67424</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>99559</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>142078</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>110592</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>136185</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>188316</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>165892</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>145321</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>203610</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>287875</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>307970</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>255913</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>60413; 72395</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>90946; 105553</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>132368; 150105</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>102183; 117402</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>128681; 142235</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>183174; 190473</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>157433; 171319</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>137475; 151821</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>193950; 211694</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>278198; 295039</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>295360; 318871</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>244969; 266099</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>115042</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>118188</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>131502</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>128417</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>139194</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>154571</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>176863</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>124261</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>254236</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>272759</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>308365</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>252678</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>108048; 120483</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>108537; 123471</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>123632; 136797</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>121873; 133159</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>131713; 144873</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>147779; 157662</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>167446; 183060</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>118191; 128962</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>243612; 261590</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>261884; 279062</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>296372; 316685</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>244716; 259641</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>127670</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>127962</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>124407</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>94262</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>156419</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>144060</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>175132</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>115247</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>284089</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>272021</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>299539</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>209510</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>121387; 131332</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>119784; 132176</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>119482; 127317</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>88867; 98737</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>150290; 159455</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>138254; 147992</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>164615; 180442</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>110930; 118223</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>276921; 289441</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>261656; 277467</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>289841; 305703</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>202394; 214724</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>89896</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>111286</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>100732</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>76396</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>164629</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>180602</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>167621</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>119500</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>254525</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>291888</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>268352</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>195897</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>83400; 92291</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>107113; 112239</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>93952; 104275</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>71952; 78758</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>157855; 167044</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>173977; 184888</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>161068; 170266</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>114386; 122768</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>245938; 258296</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>284239; 296201</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>259630; 273169</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>190035; 200612</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>597</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>659</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>737</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>961</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>1016</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>993</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>1219</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1558</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>1675</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>1730</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>1864</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>594040</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>717114</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>770415</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>575187</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>983282</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>1090170</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>1072288</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>809327</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1577321</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>1807284</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>1842702</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1384514</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>578628; 608216</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>700171; 731094</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>751017; 785293</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>558659; 590780</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>967160; 998057</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>1075256; 1103167</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>1053380; 1087911</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>792725; 830583</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1555133; 1600341</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>1784154; 1825881</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>1816540; 1865449</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>1360526; 1413011</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>